--- a/biology/Botanique/Tillandsia_firmula/Tillandsia_firmula.xlsx
+++ b/biology/Botanique/Tillandsia_firmula/Tillandsia_firmula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia firmula Mez est une espèce de plantes à fleurs de la famille des Bromeliaceae, originaire du Brésil.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée vivace ; épiphyte[1],[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée vivace ; épiphyte,
 Habitat : ?
 Altitude : ?</t>
         </is>
@@ -569,13 +585,15 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Amérique du sud :
  Brésil
-Rio de Janeiro[1],[2]
-Minas Gerais[2]
-São Paulo[2]</t>
+Rio de Janeiro,
+Minas Gerais
+São Paulo</t>
         </is>
       </c>
     </row>
@@ -604,6 +622,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,19 +649,90 @@
           <t>Dénominations et systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'épithète firmula signifie « assez robuste ».
-Protologue et Type nomenclatural
-Tillandsia firmula Mez in Mart., Fl. Bras. 3(3): 603, n° 25 (1894)
-Diagnose originale[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète firmula signifie « assez robuste ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tillandsia_firmula</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_firmula</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protologue et Type nomenclatural</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tillandsia firmula Mez in Mart., Fl. Bras. 3(3): 603, n° 25 (1894)
+Diagnose originale :
 « TILLANDSIA FIRMULA Mez n. sp. foliis caulem elongatum obtegentibus quaquaversis vel summis secunde curvatis, peranguste triangularibus, minutissime peradpresseque lepidotis; inflorescentia 8-10-flora, scapo brevi stipitata, simplicissima dense quaquaverse spicata, folia minute superante; bracteis latissime ovalibus apiceque rotundatis, sepala superantibus; sepalis antico libero, posticis binis ad 1 mm. ab apice connatis, glabris; petalis lamina sublanceolata suberectaque praeditis; staminibus quam petala manifeste brevioribus, antheris longe acutis; stylo antherae superante. »
 Type :
-leg. Glaziou, n° 3127 ; « prov. Rio de Janeiro in monte Corcovado » [1].
+leg. Glaziou, n° 3127 ; « prov. Rio de Janeiro in monte Corcovado » .
 leg. F. Sellow, n° 5877, 1829 ; « Prov. S. Paulo » ; Syntypus B (B 10 0243403)
-leg. F. Sellow, n° 5877 ; « Brasilia meridionalis a S. Paulo ad meridiam » ; Syntypus B (B 10 0243402)
-Synonymie
-(aucune)</t>
+leg. F. Sellow, n° 5877 ; « Brasilia meridionalis a S. Paulo ad meridiam » ; Syntypus B (B 10 0243402)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_firmula</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_firmula</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
